--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2715987.003929175</v>
+        <v>-2718626.429406644</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>341.9739701260787</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>284.3185410431208</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.65542908295714</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>91.75197580253081</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174641</v>
+        <v>16.37427717174643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>132.2883078804752</v>
       </c>
       <c r="T3" t="n">
-        <v>191.6159968642973</v>
+        <v>191.6159968642974</v>
       </c>
       <c r="U3" t="n">
         <v>225.8018489172557</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607531</v>
+        <v>97.34378597607532</v>
       </c>
       <c r="S4" t="n">
         <v>193.0292560325449</v>
@@ -874,7 +874,7 @@
         <v>286.2220423705616</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.3965834693201</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.09092032742973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696322</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798762</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727866</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076941</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567098</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567875</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341751</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833869</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428202</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272878</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892442</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977251</v>
+        <v>83.06560892428111</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002303</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652625</v>
+        <v>56.98118882652535</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972046</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.010065354184</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.7699066636983</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="C2" t="n">
-        <v>401.7699066636983</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="D2" t="n">
-        <v>401.7699066636983</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="E2" t="n">
-        <v>401.7699066636983</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="F2" t="n">
-        <v>401.7699066636985</v>
+        <v>401.769906663698</v>
       </c>
       <c r="G2" t="n">
-        <v>56.34165401109357</v>
+        <v>401.769906663698</v>
       </c>
       <c r="H2" t="n">
-        <v>56.34165401109357</v>
+        <v>114.5794611655957</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739679</v>
+        <v>210.177762973968</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579188</v>
+        <v>491.4767306579186</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840316</v>
+        <v>877.3547360840321</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296445</v>
+        <v>1338.387805296446</v>
       </c>
       <c r="N2" t="n">
         <v>1811.494679942783</v>
@@ -4349,31 +4349,31 @@
         <v>2580.301941171663</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928709</v>
+        <v>2784.001464928708</v>
       </c>
       <c r="R2" t="n">
         <v>2817.082700554678</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.192403003825</v>
+        <v>2697.192403003824</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.370557690243</v>
+        <v>2489.370557690242</v>
       </c>
       <c r="U2" t="n">
         <v>2235.806379578396</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234826</v>
+        <v>1904.743492234825</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.974836964712</v>
+        <v>1551.974836964711</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.509078703632</v>
+        <v>1178.509078703631</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.36974672782</v>
+        <v>788.3697467278196</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.5600913588484</v>
       </c>
       <c r="H3" t="n">
-        <v>72.88132792194853</v>
+        <v>72.88132792194854</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J3" t="n">
         <v>129.1475396695375</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7392193355944</v>
+        <v>331.7392193355943</v>
       </c>
       <c r="L3" t="n">
-        <v>650.4712751678854</v>
+        <v>650.4712751678852</v>
       </c>
       <c r="M3" t="n">
         <v>1041.773418876592</v>
       </c>
       <c r="N3" t="n">
-        <v>1457.840810889148</v>
+        <v>1457.840810889147</v>
       </c>
       <c r="O3" t="n">
         <v>1816.241394019012</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="D4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="E4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="F4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="G4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="H4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109357</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J4" t="n">
         <v>88.37025097505898</v>
@@ -4495,19 +4495,19 @@
         <v>559.8646890059858</v>
       </c>
       <c r="M4" t="n">
-        <v>874.989915930872</v>
+        <v>874.9899159308719</v>
       </c>
       <c r="N4" t="n">
         <v>1188.056785720852</v>
       </c>
       <c r="O4" t="n">
-        <v>1461.208415798625</v>
+        <v>1461.208415798624</v>
       </c>
       <c r="P4" t="n">
         <v>1671.416141503541</v>
       </c>
       <c r="Q4" t="n">
-        <v>1733.517994704579</v>
+        <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
         <v>1635.190938163088</v>
@@ -4519,19 +4519,19 @@
         <v>1217.637875978212</v>
       </c>
       <c r="U4" t="n">
-        <v>928.5247018665339</v>
+        <v>928.5247018665335</v>
       </c>
       <c r="V4" t="n">
-        <v>673.840213660647</v>
+        <v>755.3968397763111</v>
       </c>
       <c r="W4" t="n">
-        <v>384.4230436236864</v>
+        <v>465.9796697393506</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4334927256691</v>
+        <v>237.9901188413333</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.34165401109357</v>
+        <v>237.9901188413333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949298</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670229</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468714</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251695</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251695</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125553</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.715926185142</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.715926185142</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868975</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189675</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189675</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218345</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121613</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="E13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703115</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998285</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,13 +6160,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6181,16 +6181,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
@@ -6619,19 +6619,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O31" t="n">
         <v>2179.340199382518</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656819</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,22 +7333,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7555,13 +7555,13 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6759394351598</v>
+        <v>107.6759394351603</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>69.3648101751935</v>
+        <v>411.3387803012722</v>
       </c>
       <c r="H2" t="n">
-        <v>298.8789252992939</v>
+        <v>14.56038425617311</v>
       </c>
       <c r="I2" t="n">
-        <v>57.6554290829571</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.74105985450785</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.4937330246651</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823048</v>
+        <v>46.45968844823402</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393034</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667967</v>
+        <v>63.36835372228806</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194245</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26390,16 +26390,16 @@
         <v>184268.1965259821</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488824</v>
+        <v>32719.39465488822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>18658.25315843005</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26436,25 +26436,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989936</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="K4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="L4" t="n">
+        <v>19767.83547989935</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.83547989929</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>19767.83547989929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
         <v>19767.83547989928</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.80602990606</v>
+        <v>97942.80602990603</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1302773.885454943</v>
+        <v>-1303238.182246968</v>
       </c>
       <c r="C6" t="n">
-        <v>-334438.1655487737</v>
+        <v>-334438.1655487736</v>
       </c>
       <c r="D6" t="n">
-        <v>-198897.9515495503</v>
+        <v>-198897.9515495504</v>
       </c>
       <c r="E6" t="n">
-        <v>-438311.967848068</v>
+        <v>-438346.7057735037</v>
       </c>
       <c r="F6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="G6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="H6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="I6" t="n">
-        <v>-142359.6693274465</v>
+        <v>-142359.6693274466</v>
       </c>
       <c r="J6" t="n">
         <v>-307200.1478597968</v>
@@ -26552,10 +26552,10 @@
         <v>-122931.9513338147</v>
       </c>
       <c r="M6" t="n">
-        <v>-207986.9792693264</v>
+        <v>-207986.9792693265</v>
       </c>
       <c r="N6" t="n">
-        <v>-142359.6693274464</v>
+        <v>-142359.6693274465</v>
       </c>
       <c r="O6" t="n">
         <v>-122931.9513338147</v>
@@ -26707,22 +26707,22 @@
         <v>24.28464749203975</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.034356948392</v>
+        <v>986.0343569483917</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386696</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.034356948392</v>
+        <v>986.0343569483917</v>
       </c>
       <c r="C3" t="n">
         <v>103.7423436449066</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386696</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636235</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>704.2706751386697</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636235</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386696</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636235</v>
+        <v>127.1307802636234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.0640538510508</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.282356808066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.0762367492905</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>67.91322356906868</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306770817</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492397</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356197</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862879</v>
+        <v>3.963957213862878</v>
       </c>
       <c r="H2" t="n">
-        <v>40.59587681647322</v>
+        <v>40.59587681647321</v>
       </c>
       <c r="I2" t="n">
         <v>152.8204604874488</v>
@@ -31051,37 +31051,37 @@
         <v>336.4359135800948</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429106</v>
+        <v>504.2302224429105</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266669</v>
+        <v>625.5421780266668</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287008</v>
+        <v>696.0362021287007</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625888</v>
+        <v>707.2987955625886</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172397</v>
+        <v>667.8821960172396</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999998</v>
+        <v>570.0220022999997</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785353</v>
+        <v>428.0627845785352</v>
       </c>
       <c r="R2" t="n">
         <v>249.0009273353143</v>
       </c>
       <c r="S2" t="n">
-        <v>90.32867501090045</v>
+        <v>90.32867501090043</v>
       </c>
       <c r="T2" t="n">
         <v>17.35222270368476</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3171165771090303</v>
+        <v>0.3171165771090302</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.120904088530504</v>
+        <v>2.120904088530503</v>
       </c>
       <c r="H3" t="n">
         <v>20.48346843396565</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966866</v>
+        <v>73.02235567966865</v>
       </c>
       <c r="J3" t="n">
-        <v>200.3789253115596</v>
+        <v>200.3789253115595</v>
       </c>
       <c r="K3" t="n">
-        <v>342.4794992431033</v>
+        <v>342.4794992431032</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276429</v>
+        <v>460.5059513276428</v>
       </c>
       <c r="M3" t="n">
-        <v>537.3887245368736</v>
+        <v>537.3887245368734</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253085</v>
+        <v>551.6118050253084</v>
       </c>
       <c r="O3" t="n">
-        <v>504.6170354847115</v>
+        <v>504.6170354847114</v>
       </c>
       <c r="P3" t="n">
-        <v>404.9996588001802</v>
+        <v>404.99965880018</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587359</v>
+        <v>270.7315464587358</v>
       </c>
       <c r="R3" t="n">
         <v>131.6820977071834</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336262</v>
+        <v>39.39486322336261</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524263</v>
+        <v>8.548731830524261</v>
       </c>
       <c r="U3" t="n">
         <v>0.1395331637191121</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.778094742038084</v>
+        <v>1.778094742038083</v>
       </c>
       <c r="H4" t="n">
         <v>15.80887870648406</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238166</v>
+        <v>53.47215824238165</v>
       </c>
       <c r="J4" t="n">
         <v>125.7112982620925</v>
@@ -31215,31 +31215,31 @@
         <v>264.3541946480984</v>
       </c>
       <c r="M4" t="n">
-        <v>278.7244330632971</v>
+        <v>278.7244330632969</v>
       </c>
       <c r="N4" t="n">
-        <v>272.0969890247917</v>
+        <v>272.0969890247916</v>
       </c>
       <c r="O4" t="n">
-        <v>251.3256095382558</v>
+        <v>251.3256095382557</v>
       </c>
       <c r="P4" t="n">
-        <v>215.0524768006787</v>
+        <v>215.0524768006786</v>
       </c>
       <c r="Q4" t="n">
         <v>148.8911878992072</v>
       </c>
       <c r="R4" t="n">
-        <v>79.94960540109417</v>
+        <v>79.94960540109416</v>
       </c>
       <c r="S4" t="n">
-        <v>30.98734200442732</v>
+        <v>30.98734200442731</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799083</v>
+        <v>7.597313897799081</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935014</v>
+        <v>0.09698698592935011</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33178,13 +33178,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,31 +33503,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3900090534086</v>
+        <v>155.3900090534085</v>
       </c>
       <c r="K2" t="n">
-        <v>284.1403713979301</v>
+        <v>284.14037139793</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566796</v>
+        <v>389.7757630566795</v>
       </c>
       <c r="M2" t="n">
-        <v>465.6899689014281</v>
+        <v>465.689968901428</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659979</v>
+        <v>477.8857319659976</v>
       </c>
       <c r="O2" t="n">
-        <v>437.783984595553</v>
+        <v>437.7839845955529</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447303</v>
+        <v>338.7890065447302</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040858</v>
+        <v>205.7570947040857</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118219</v>
+        <v>33.41538952118214</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.54129864489289</v>
+        <v>73.54129864489283</v>
       </c>
       <c r="K3" t="n">
         <v>204.6380602687443</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477688</v>
+        <v>321.9515715477687</v>
       </c>
       <c r="M3" t="n">
-        <v>395.2546906148553</v>
+        <v>395.2546906148551</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419752</v>
+        <v>420.2700929419751</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402671</v>
+        <v>362.0207910402669</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7011908210097</v>
+        <v>378.7011908210101</v>
       </c>
       <c r="Q3" t="n">
         <v>340.8270601085634</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5242635545403</v>
+        <v>31.52426355454027</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541974</v>
+        <v>32.35211814541971</v>
       </c>
       <c r="K4" t="n">
         <v>184.3127882036326</v>
@@ -34863,19 +34863,19 @@
         <v>291.9442199084145</v>
       </c>
       <c r="M4" t="n">
-        <v>318.3083100251376</v>
+        <v>318.3083100251375</v>
       </c>
       <c r="N4" t="n">
-        <v>316.2291614040203</v>
+        <v>316.2291614040201</v>
       </c>
       <c r="O4" t="n">
-        <v>275.9107374522955</v>
+        <v>275.9107374522954</v>
       </c>
       <c r="P4" t="n">
-        <v>212.3310360655722</v>
+        <v>212.3310360655721</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.7291446475128</v>
+        <v>62.72914464751277</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706042</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,16 +37464,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
